--- a/ALBARRACIN, ROLAND.xlsx
+++ b/ALBARRACIN, ROLAND.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>ALBARRACIN, ROLAND</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>7/3,4/2023</t>
   </si>
 </sst>
 </file>
@@ -640,17 +646,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -660,6 +663,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1549,10 +1555,10 @@
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,14 +1588,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1601,16 +1607,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>38173</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1624,14 +1630,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1664,18 +1670,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1722,7 +1728,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>48</v>
+        <v>54.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1732,7 +1738,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>75</v>
+        <v>79.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3120,15 +3126,17 @@
       <c r="B77" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="42">
         <v>1</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="10"/>
@@ -3138,15 +3146,19 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
+      <c r="A78" s="43">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="42"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="10"/>
@@ -3154,15 +3166,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
+      <c r="A79" s="43">
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="42"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="42"/>
       <c r="I79" s="10"/>
@@ -3170,15 +3186,19 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
+      <c r="A80" s="43">
+        <v>45047</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="42"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="42"/>
       <c r="I80" s="10"/>
@@ -3186,15 +3206,19 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
+      <c r="A81" s="43">
+        <v>45078</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="42"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="42"/>
       <c r="I81" s="10"/>
@@ -3202,8 +3226,12 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="43">
+        <v>45108</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="C82" s="14"/>
       <c r="D82" s="42"/>
       <c r="E82" s="10"/>
@@ -3212,10 +3240,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="42"/>
+      <c r="H82" s="42">
+        <v>2</v>
+      </c>
       <c r="I82" s="10"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
@@ -4019,17 +4051,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4097,14 +4129,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4116,16 +4148,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>38173</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4139,14 +4171,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4179,18 +4211,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
